--- a/Пример портрета матрицы.xlsx
+++ b/Пример портрета матрицы.xlsx
@@ -444,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q28"/>
+  <dimension ref="B2:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R30" sqref="R30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1263,6 +1263,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <v>4</v>
+      </c>
+      <c r="H30">
+        <v>6</v>
+      </c>
+      <c r="I30">
+        <v>9</v>
+      </c>
+      <c r="J30">
+        <v>13</v>
+      </c>
+      <c r="K30">
+        <v>20</v>
+      </c>
+      <c r="L30">
+        <v>24</v>
+      </c>
+      <c r="M30">
+        <v>29</v>
+      </c>
+      <c r="N30">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Пример портрета матрицы.xlsx
+++ b/Пример портрета матрицы.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="1">
   <si>
     <t>x</t>
   </si>
@@ -45,7 +45,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -126,11 +126,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -162,6 +225,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -444,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q30"/>
+  <dimension ref="B2:Q49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1301,6 +1382,694 @@
         <v>35</v>
       </c>
     </row>
+    <row r="32" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
+      <c r="H32">
+        <v>5</v>
+      </c>
+      <c r="I32">
+        <v>6</v>
+      </c>
+      <c r="J32">
+        <v>7</v>
+      </c>
+      <c r="K32">
+        <v>8</v>
+      </c>
+      <c r="L32">
+        <v>9</v>
+      </c>
+      <c r="M32">
+        <v>10</v>
+      </c>
+      <c r="N32">
+        <v>11</v>
+      </c>
+      <c r="O32">
+        <v>12</v>
+      </c>
+      <c r="P32">
+        <v>13</v>
+      </c>
+      <c r="Q32">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="10"/>
+    </row>
+    <row r="34" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K34" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="13"/>
+    </row>
+    <row r="35" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K36" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="13"/>
+    </row>
+    <row r="37" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G37" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="H37" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I37" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="J37" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K37" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="22"/>
+    </row>
+    <row r="38" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H38" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="13"/>
+    </row>
+    <row r="39" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>6</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I39" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J39" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K39" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="L39" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M39" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="N39" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="O39" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="P39" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>7</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F40" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G40" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="H40" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I40" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="J40" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="K40" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L40" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M40" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N40" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O40" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P40" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>8</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J41" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K41" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="L41" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M41" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="N41" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="O41" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="P41" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>9</v>
+      </c>
+      <c r="C42" s="11"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J42" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K42" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="L42" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="M42" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="N42" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="O42" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="P42" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>10</v>
+      </c>
+      <c r="C43" s="19"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="J43" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K43" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L43" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M43" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="N43" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O43" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P43" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>11</v>
+      </c>
+      <c r="C44" s="11"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J44" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K44" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="L44" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M44" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="N44" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="O44" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="P44" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>12</v>
+      </c>
+      <c r="C45" s="11"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J45" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K45" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="L45" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M45" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="N45" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="O45" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="P45" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>13</v>
+      </c>
+      <c r="C46" s="11"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J46" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K46" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="L46" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M46" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="N46" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="O46" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="P46" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>14</v>
+      </c>
+      <c r="C47" s="14"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="J47" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="K47" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="L47" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="M47" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="N47" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="O47" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="P47" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
+      <c r="G49">
+        <v>6</v>
+      </c>
+      <c r="H49">
+        <v>10</v>
+      </c>
+      <c r="I49">
+        <v>15</v>
+      </c>
+      <c r="J49">
+        <v>21</v>
+      </c>
+      <c r="K49">
+        <v>28</v>
+      </c>
+      <c r="L49">
+        <v>36</v>
+      </c>
+      <c r="M49">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
